--- a/analytics_csv/monthly_data.xlsx
+++ b/analytics_csv/monthly_data.xlsx
@@ -3762,25 +3762,25 @@
         <v>45230</v>
       </c>
       <c r="B128" t="n">
-        <v>29240.1472505332</v>
+        <v>29755.89513312328</v>
       </c>
       <c r="C128" t="n">
-        <v>34502.82089154515</v>
+        <v>34667.77936054675</v>
       </c>
       <c r="D128" t="n">
         <v>26756.79863882857</v>
       </c>
       <c r="E128" t="n">
-        <v>34089.57587222225</v>
+        <v>34667.77936054675</v>
       </c>
       <c r="F128" t="n">
         <v>26967.39743314936</v>
       </c>
       <c r="G128" t="n">
-        <v>7122.178439072886</v>
+        <v>7700.381927397386</v>
       </c>
       <c r="H128" t="n">
-        <v>26.41032920113393</v>
+        <v>28.55441258833446</v>
       </c>
     </row>
   </sheetData>
